--- a/backend/app/vol/RelacionGastosDatos.xlsx
+++ b/backend/app/vol/RelacionGastosDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69128183-8723-4B35-BE24-41041B60F2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3E3D1B-A4FD-430F-9427-5E845C57030D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{577D7428-0228-4848-8DAB-59B337CE1F0E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Consumo por hora</t>
   </si>
@@ -76,6 +76,45 @@
   </si>
   <si>
     <t>Extradatos Movistar 1Gb</t>
+  </si>
+  <si>
+    <t>Actividades Realizadas</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construccion y envio de 500MD, desarrollo proyecto AT04 </t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, desarrollo proyecto AT04, completar plantilla EUC.</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, desarrollo proyecto AT04, meeting con equipo de Mexico sobre proyecto 500MD, creacion de mapping para el proyecto 500MD</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT37, AT38, desarrollo proyecto AT04</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT37, desarrollo proyecto AT04</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT38, tablas manuales auxiliar contable, y carga de las mismas al portal del LRR, desarrollo proyecto AT04</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, modificacion a la plantilla de las EUC</t>
   </si>
 </sst>
 </file>
@@ -84,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -480,7 +519,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,42 +536,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +549,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +578,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -891,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F3FC44-5E96-4BAB-A732-39240230016F}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,38 +958,41 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1">
         <v>35839.65</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2">
         <f xml:space="preserve"> 61663.98 - 38728.98</f>
         <v>22935</v>
@@ -944,231 +1001,262 @@
         <f>1000*D4/D3</f>
         <v>639.93370470972786</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="26">
         <v>43906</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="29">
         <v>43910</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="13">
         <v>4.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9">
         <f>E7*$E$4</f>
         <v>2879.7016711937754</v>
       </c>
-      <c r="G7" s="21">
+      <c r="H7" s="9">
         <f>E7*$D$4</f>
         <v>103207.5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="14">
         <v>3</v>
       </c>
-      <c r="F8" s="22">
-        <f t="shared" ref="F8:F16" si="0">E8*$E$4</f>
+      <c r="F8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" ref="G8:G16" si="0">E8*$E$4</f>
         <v>1919.8011141291836</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G8:G16" si="1">E8*$D$4</f>
+      <c r="H8" s="10">
+        <f t="shared" ref="H8:H16" si="1">E8*$D$4</f>
         <v>68805</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>1279.8674094194557</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>45870</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="35"/>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="15">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>3199.6685235486393</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>114675</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
         <v>43913</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="29">
         <v>43917</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>1919.8011141291836</v>
       </c>
-      <c r="G12" s="21">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>68805</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19" t="s">
+    <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="14">
         <v>4.5</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>2879.7016711937754</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>103207.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="14">
         <v>1.5</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>959.90055706459179</v>
       </c>
-      <c r="G14" s="22">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>34402.5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>639.93370470972786</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>22935</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="36"/>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="31">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="16">
         <f>SUM(E7:E16)</f>
-        <v>23.5</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" ref="F17:G17" si="2">SUM(F7:F16)</f>
-        <v>15038.442060678603</v>
-      </c>
-      <c r="G17" s="27">
+        <v>24.5</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11">
+        <f t="shared" ref="G17:H17" si="2">SUM(G7:G16)</f>
+        <v>15678.375765388329</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="2"/>
-        <v>538972.5</v>
+        <v>561907.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/app/vol/RelacionGastosDatos.xlsx
+++ b/backend/app/vol/RelacionGastosDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3E3D1B-A4FD-430F-9427-5E845C57030D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8259C-8077-4981-B245-A405A9C99127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{577D7428-0228-4848-8DAB-59B337CE1F0E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Consumo por hora</t>
   </si>
@@ -81,40 +81,28 @@
     <t>Actividades Realizadas</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construccion y envio de 500MD, desarrollo proyecto AT04 </t>
-  </si>
-  <si>
     <t>Construccion y envio de 500MD</t>
   </si>
   <si>
-    <t>Construccion y envio de 500MD, desarrollo proyecto AT04, completar plantilla EUC.</t>
-  </si>
-  <si>
-    <t>Construccion y envio de 500MD, desarrollo proyecto AT04, meeting con equipo de Mexico sobre proyecto 500MD, creacion de mapping para el proyecto 500MD</t>
-  </si>
-  <si>
-    <t>Construccion y envio de 500MD, AT37, AT38, desarrollo proyecto AT04</t>
-  </si>
-  <si>
-    <t>Construccion y envio de 500MD, AT37, desarrollo proyecto AT04</t>
-  </si>
-  <si>
-    <t>Construccion y envio de 500MD, AT38, tablas manuales auxiliar contable, y carga de las mismas al portal del LRR, desarrollo proyecto AT04</t>
-  </si>
-  <si>
     <t>Construccion y envio de 500MD, modificacion a la plantilla de las EUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construccion y envio de 500MD </t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT37, AT38</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, completar plantilla EUC.</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, meeting con equipo de Mexico sobre proyecto 500MD, creacion de mapping para el proyecto 500MD</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT37</t>
+  </si>
+  <si>
+    <t>Construccion y envio de 500MD, AT38, tablas manuales auxiliar contable, y carga de las mismas al portal del LRR</t>
   </si>
 </sst>
 </file>
@@ -569,6 +557,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -613,21 +616,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,7 +936,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,26 +961,26 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1">
         <v>35839.65</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2">
         <f xml:space="preserve"> 61663.98 - 38728.98</f>
         <v>22935</v>
@@ -1001,14 +989,14 @@
         <f>1000*D4/D3</f>
         <v>639.93370470972786</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1025,83 +1013,83 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="31">
         <v>43906</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="34">
         <v>43910</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="G7" s="9">
         <f>E7*$E$4</f>
-        <v>2879.7016711937754</v>
+        <v>1279.8674094194557</v>
       </c>
       <c r="H7" s="9">
         <f>E7*$D$4</f>
-        <v>103207.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>20</v>
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" ref="G8:G16" si="0">E8*$E$4</f>
-        <v>1919.8011141291836</v>
+        <v>959.90055706459179</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" ref="H8:H16" si="1">E8*$D$4</f>
-        <v>68805</v>
+        <v>34402.5</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>22</v>
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>1279.8674094194557</v>
+        <v>959.90055706459179</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>34402.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1112,124 +1100,124 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>23</v>
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>3199.6685235486393</v>
+        <v>1599.8342617743197</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>114675</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+        <v>57337.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="31">
         <v>43913</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="34">
         <v>43917</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>25</v>
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>1919.8011141291836</v>
+        <v>1599.8342617743197</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="1"/>
-        <v>68805</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
+        <v>57337.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>2879.7016711937754</v>
+        <v>1919.8011141291836</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>103207.5</v>
+        <v>68805</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>27</v>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>959.90055706459179</v>
+        <v>319.96685235486393</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="1"/>
-        <v>34402.5</v>
+        <v>11467.5</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>21</v>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>639.93370470972786</v>
+        <v>319.96685235486393</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>22935</v>
+        <v>11467.5</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1240,23 +1228,23 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="16">
         <f>SUM(E7:E16)</f>
-        <v>24.5</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="11">
         <f t="shared" ref="G17:H17" si="2">SUM(G7:G16)</f>
-        <v>15678.375765388329</v>
+        <v>8959.0718659361919</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="2"/>
-        <v>561907.5</v>
+        <v>321090</v>
       </c>
     </row>
   </sheetData>

--- a/backend/app/vol/RelacionGastosDatos.xlsx
+++ b/backend/app/vol/RelacionGastosDatos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Projects\AT-LRR\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69128183-8723-4B35-BE24-41041B60F2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{577D7428-0228-4848-8DAB-59B337CE1F0E}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,10 +80,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -477,15 +476,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -497,42 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,10 +505,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,22 +538,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,11 +889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F3FC44-5E96-4BAB-A732-39240230016F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,15 +914,15 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1">
         <v>35839.65</v>
       </c>
@@ -932,10 +931,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2">
         <f xml:space="preserve"> 61663.98 - 38728.98</f>
         <v>22935</v>
@@ -947,17 +946,17 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -965,88 +964,88 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="26">
         <v>43906</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="29">
         <v>43910</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="13">
         <v>4.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="9">
         <f>E7*$E$4</f>
         <v>2879.7016711937754</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="9">
         <f>E7*$D$4</f>
         <v>103207.5</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="14">
         <v>3</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="10">
         <f t="shared" ref="F8:F16" si="0">E8*$E$4</f>
         <v>1919.8011141291836</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="10">
         <f t="shared" ref="G8:G16" si="1">E8*$D$4</f>
         <v>68805</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>1279.8674094194557</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>45870</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="15">
         <v>5</v>
       </c>
       <c r="F11" s="2">
@@ -1059,88 +1058,88 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="26">
         <v>43913</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="29">
         <v>43917</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>1919.8011141291836</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>68805</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="14">
         <v>4.5</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>2879.7016711937754</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>103207.5</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="14">
         <v>1.5</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>959.90055706459179</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>34402.5</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
+        <v>639.93370470972786</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22935</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="2">
@@ -1153,22 +1152,22 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="31">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="16">
         <f>SUM(E7:E16)</f>
-        <v>23.5</v>
-      </c>
-      <c r="F17" s="26">
+        <v>24.5</v>
+      </c>
+      <c r="F17" s="11">
         <f t="shared" ref="F17:G17" si="2">SUM(F7:F16)</f>
-        <v>15038.442060678603</v>
-      </c>
-      <c r="G17" s="27">
+        <v>15678.375765388329</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>538972.5</v>
+        <v>561907.5</v>
       </c>
     </row>
   </sheetData>
@@ -1185,4 +1184,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">12:45 26/03/2020</XMLData>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<XMLData TextToDisplay="RightsWATCHMark">7|CITI-No PII-Public|{00000000-0000-0000-0000-000000000000}</XMLData>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3478448-CC33-410E-833F-EEC1D2B4F613}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C35DB75D-9BD9-4E4A-8B83-924BF1DA1363}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D788301B-748A-44B0-BF3C-95185FE46E7F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/backend/app/vol/RelacionGastosDatos.xlsx
+++ b/backend/app/vol/RelacionGastosDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8259C-8077-4981-B245-A405A9C99127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE578B5-EB1B-4C85-A54A-62580FF543C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{577D7428-0228-4848-8DAB-59B337CE1F0E}"/>
   </bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
